--- a/ams/cases/ieee14/ieee14_esd1.xlsx
+++ b/ams/cases/ieee14/ieee14_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60D7E6-DF2F-0A48-80D4-C0E1E0D74CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF575E56-43B3-C744-8034-F19E59E81582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="303">
   <si>
     <t>uid</t>
   </si>
@@ -303,9 +303,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>0.15</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>PV_4</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>-0.06</t>
   </si>
   <si>
@@ -351,13 +345,7 @@
     <t>PV_5</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
     <t>Slack_1</t>
-  </si>
-  <si>
-    <t>0.81442</t>
   </si>
   <si>
     <t>0.01962</t>
@@ -1678,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1695,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -1792,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -1806,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E2" s="6">
         <v>0.05</v>
@@ -1829,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E3" s="6">
         <v>0.05</v>
@@ -1870,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1884,10 +1872,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1901,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -1918,10 +1906,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1935,10 +1923,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1952,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1981,40 +1969,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2028,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E2" s="4">
         <v>4</v>
@@ -2066,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4">
         <v>4</v>
@@ -2104,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E4" s="4">
         <v>4</v>
@@ -2142,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -2180,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
@@ -2218,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -2256,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -2294,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -2332,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
@@ -2370,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -2420,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2431,10 +2419,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D2" s="6">
         <v>60</v>
@@ -2445,10 +2433,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D3" s="6">
         <v>60</v>
@@ -2459,10 +2447,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D4" s="6">
         <v>60</v>
@@ -2473,10 +2461,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -2487,10 +2475,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D6" s="6">
         <v>60</v>
@@ -2501,10 +2489,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D7" s="6">
         <v>60</v>
@@ -2520,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51EF528-0F66-7F4D-853A-CCFBB14E1612}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2534,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2545,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D2" s="6">
         <v>60</v>
@@ -2559,10 +2547,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D3" s="6">
         <v>60</v>
@@ -2573,10 +2561,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D4" s="6">
         <v>60</v>
@@ -2587,10 +2575,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -2601,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D6" s="6">
         <v>60</v>
@@ -2615,10 +2603,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D7" s="6">
         <v>60</v>
@@ -3312,7 +3300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
@@ -3397,38 +3387,38 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>91</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
         <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
         <v>95</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3436,13 +3426,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
@@ -3453,38 +3443,38 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>90</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>91</v>
       </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" t="s">
-        <v>99</v>
-      </c>
       <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
         <v>95</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3492,13 +3482,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
@@ -3509,38 +3499,38 @@
       <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
-        <v>101</v>
+      <c r="I4">
+        <v>0.1</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
         <v>91</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
       <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
       <c r="R4" t="s">
         <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3548,13 +3538,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -3565,44 +3555,44 @@
       <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
-        <v>105</v>
+      <c r="I5">
+        <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
         <v>91</v>
       </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" t="s">
-        <v>95</v>
-      </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A5:H5 A2:H2 J2:S2 A3:H3 J3:S3 A4:H4 J4:S4 J5:S5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3611,7 +3601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
@@ -3682,13 +3674,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
@@ -3699,38 +3691,38 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>107</v>
+      <c r="I2">
+        <v>1.6</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" t="s">
-        <v>95</v>
-      </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
@@ -3739,7 +3731,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1 A2:H2 J2:T2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3792,13 +3784,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -3807,16 +3799,16 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -3827,13 +3819,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3842,16 +3834,16 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -3862,13 +3854,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -3877,16 +3869,16 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -3897,13 +3889,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -3912,16 +3904,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -3932,13 +3924,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -3947,16 +3939,16 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -3967,13 +3959,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -3982,16 +3974,16 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -4002,13 +3994,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -4017,16 +4009,16 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -4037,13 +4029,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -4052,16 +4044,16 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -4072,13 +4064,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -4087,16 +4079,16 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -4107,13 +4099,13 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -4122,16 +4114,16 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -4142,13 +4134,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
@@ -4157,16 +4149,16 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -4204,55 +4196,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
         <v>76</v>
       </c>
       <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" t="s">
-        <v>156</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -4264,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -4272,13 +4264,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -4290,7 +4282,7 @@
         <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -4299,13 +4291,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -4340,13 +4332,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -4358,7 +4350,7 @@
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -4367,13 +4359,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -4408,13 +4400,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -4426,7 +4418,7 @@
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -4435,13 +4427,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -4476,13 +4468,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -4494,7 +4486,7 @@
         <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -4503,13 +4495,13 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -4544,13 +4536,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -4562,7 +4554,7 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -4571,13 +4563,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -4612,13 +4604,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -4630,7 +4622,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -4639,13 +4631,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -4680,13 +4672,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -4698,7 +4690,7 @@
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -4707,10 +4699,10 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -4748,13 +4740,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -4766,7 +4758,7 @@
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -4775,10 +4767,10 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -4816,13 +4808,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -4834,7 +4826,7 @@
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
@@ -4843,10 +4835,10 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -4884,13 +4876,13 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -4902,7 +4894,7 @@
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -4911,10 +4903,10 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -4952,13 +4944,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -4970,7 +4962,7 @@
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
@@ -4982,7 +4974,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -5020,13 +5012,13 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>
@@ -5038,7 +5030,7 @@
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
@@ -5047,10 +5039,10 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -5088,13 +5080,13 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -5106,7 +5098,7 @@
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
@@ -5115,10 +5107,10 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -5156,13 +5148,13 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -5174,7 +5166,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -5183,10 +5175,10 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -5224,13 +5216,13 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -5242,7 +5234,7 @@
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
@@ -5251,10 +5243,10 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -5289,16 +5281,16 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -5310,7 +5302,7 @@
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
         <v>40</v>
@@ -5319,10 +5311,10 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -5357,16 +5349,16 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -5378,7 +5370,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -5390,7 +5382,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -5414,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -5425,16 +5417,16 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -5446,7 +5438,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -5458,7 +5450,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -5482,7 +5474,7 @@
         <v>15</v>
       </c>
       <c r="T19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -5493,16 +5485,16 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -5514,7 +5506,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -5526,7 +5518,7 @@
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -5550,7 +5542,7 @@
         <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U20" t="s">
         <v>14</v>
@@ -5561,16 +5553,16 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
@@ -5582,7 +5574,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -5594,7 +5586,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -5618,7 +5610,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U21" t="s">
         <v>14</v>
@@ -5666,13 +5658,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5680,13 +5672,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -5701,10 +5693,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5712,13 +5704,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
@@ -5733,10 +5725,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5774,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5796,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5825,25 +5817,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5851,10 +5843,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5866,10 +5858,10 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -5880,7 +5872,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -5895,10 +5887,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -5909,10 +5901,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -5924,10 +5916,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -5938,10 +5930,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5953,10 +5945,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -5967,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -5982,10 +5974,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
